--- a/Lower2.xlsx
+++ b/Lower2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,182 +458,632 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44873.23958333334</v>
+        <v>44090.01041666666</v>
       </c>
       <c r="B2" t="n">
-        <v>19701.91252833079</v>
+        <v>2.721714588703309</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44873.66666666666</v>
+        <v>44090.66666666666</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>19746.93872516882</v>
+        <v>2.626344181182382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44873.76041666666</v>
+        <v>44095.38541666666</v>
       </c>
       <c r="B4" t="n">
-        <v>18531.3314296272</v>
+        <v>2.54601019334748</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44875.13541666666</v>
+        <v>44095.6875</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>16486.65264751405</v>
+        <v>2.699081890485809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44885.90625</v>
+        <v>44105.66666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>16261.34725411516</v>
+        <v>2.822815541294998</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44886.17708333334</v>
+        <v>44105.9375</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>16318.36677990177</v>
+        <v>2.830988566391733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44893.125</v>
+        <v>44106.375</v>
       </c>
       <c r="B8" t="n">
-        <v>16149.32269597581</v>
+        <v>2.576148539848103</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44893.52083333334</v>
+        <v>44106.58333333334</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>16235.99732739341</v>
+        <v>2.630449014213091</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44902.33333333334</v>
+        <v>44108.09375</v>
       </c>
       <c r="B10" t="n">
-        <v>16692.12497262913</v>
+        <v>2.460750845309257</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44902.60416666666</v>
+        <v>44108.3125</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>16880.48499607055</v>
+        <v>2.548202028840201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44907.04166666666</v>
+        <v>44110.45833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>16921.252181106</v>
+        <v>2.445142707241562</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44907.40625</v>
+        <v>44111.21875</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>16972.9260362305</v>
+        <v>2.221048679547392</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44911.38541666666</v>
+        <v>44112.29166666666</v>
       </c>
       <c r="B14" t="n">
-        <v>17031.57599920031</v>
+        <v>2.039066820529677</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44912.27083333334</v>
+        <v>44112.42708333334</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>16738.18114085326</v>
+        <v>2.182479925400636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44914.9375</v>
+        <v>44120.16666666666</v>
       </c>
       <c r="B16" t="n">
-        <v>16338.44333667526</v>
+        <v>2.144070585370677</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44915.0625</v>
+        <v>44120.48958333334</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>16570.5964488361</v>
+        <v>2.191469830027393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44920.60416666666</v>
+        <v>44123.15625</v>
       </c>
       <c r="B18" t="n">
-        <v>16729.04781477425</v>
+        <v>2.110255916041447</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44920.61458333334</v>
+        <v>44123.54166666666</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>16823.80216547004</v>
+        <v>2.107727062128928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44922.72916666666</v>
+        <v>44124.32291666666</v>
       </c>
       <c r="B20" t="n">
-        <v>16642.94128517132</v>
+        <v>1.972947284224925</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44923.05208333334</v>
+        <v>44124.84375</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>16723.63397160145</v>
+        <v>1.915600803314232</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44129.875</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.763241003717524</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44130.08333333334</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1.82061155675064</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44130.67708333334</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.713633438908</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44131.08333333334</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1.708347335846987</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44132.29166666666</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.523682772492656</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44132.52083333334</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1.599063398662677</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44137.375</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.509468432597926</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44137.90625</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1.491771848317311</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44139.04166666666</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.352453607204426</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44139.41666666666</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1.375994068739984</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44140.54166666666</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.305564072633455</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44140.58333333334</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>1.370658300155706</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44161.14583333334</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.928037717057017</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44161.85416666666</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1.819467800485715</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44173.35416666666</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.732894974855642</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44173.67708333334</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>1.731193274007974</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44174.34375</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.527500294467409</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44174.48958333334</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>1.622281584551328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44185.91666666666</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.529514724800564</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44186.07291666666</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>1.595449927742316</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44188.22916666666</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.38851377236697</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44189.0625</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>1.265586180957891</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44211.66666666666</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.994398497615928</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44211.9375</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>3.230715607712678</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44217.9375</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.960696161077601</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44218.15625</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>3.101020120276233</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44233.07291666666</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6.117283855637567</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44233.73958333334</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>6.022875422410603</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44237.53125</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7.370374437788142</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44237.76041666666</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>8.069859602960564</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44242.09375</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.037609503087824</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44242.35416666666</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>8.369873372139002</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44249.59375</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8.961131125366157</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44249.61458333334</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>10.28836147115143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44267.83333333334</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14.12585757239154</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44268.21875</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>14.49075860085157</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44279.92708333334</v>
+      </c>
+      <c r="B58" t="n">
+        <v>13.73668846338735</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44280.77083333334</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>13.08219313372434</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44304.05208333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>23.54699873187199</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44304.25</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>24.35933694351101</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44326.83333333334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40.39098955608101</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44326.90625</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>43.53030316279118</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44335.52083333334</v>
+      </c>
+      <c r="B64" t="n">
+        <v>36.46550974054149</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44335.63541666666</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>45.68648690290231</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44339.40625</v>
+      </c>
+      <c r="B66" t="n">
+        <v>21.93368251561866</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44339.83333333334</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>23.61274779655797</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44367.5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>31.64069288468217</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44367.63541666666</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>33.99281598173719</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44432.67708333334</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68.63250106733484</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44433.11458333334</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>71.89387507720097</v>
       </c>
     </row>
   </sheetData>
